--- a/workspaces/msk/src/configs/menu/list.xlsx
+++ b/workspaces/msk/src/configs/menu/list.xlsx
@@ -1,44 +1,119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Practice\Latihan Proyek\Proyek\menu-simple-kit\workspaces\msk\src\configs\menu\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49897879-6C42-4F22-9219-F2832C8F1AAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Food" sheetId="1" r:id="rId1"/>
     <sheet name="Drink" sheetId="2" r:id="rId2"/>
     <sheet name="Snack" sheetId="3" r:id="rId3"/>
     <sheet name="Promo" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Deskripsi Pendek</t>
+  </si>
+  <si>
+    <t>Deskripsi Panjang</t>
+  </si>
+  <si>
+    <t>Harga</t>
+  </si>
+  <si>
+    <t>Gambar</t>
+  </si>
+  <si>
+    <t>Nasgor</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>890432804</t>
+  </si>
+  <si>
+    <t>nasig</t>
+  </si>
+  <si>
+    <t>Noodle</t>
+  </si>
+  <si>
+    <t>Hldhjsladkjsa</t>
+  </si>
+  <si>
+    <t>3231321</t>
+  </si>
+  <si>
+    <t>mieg</t>
+  </si>
+  <si>
+    <t>Air Putih</t>
+  </si>
+  <si>
+    <t>dsadasdasdgada</t>
+  </si>
+  <si>
+    <t>airPutih</t>
+  </si>
+  <si>
+    <t>Air Teh</t>
+  </si>
+  <si>
+    <t>dsagasdewdas</t>
+  </si>
+  <si>
+    <t>air-teh</t>
+  </si>
+  <si>
+    <t>dsadasdsa</t>
+  </si>
+  <si>
+    <t>dsadsa</t>
+  </si>
+  <si>
+    <t>dsadsadas</t>
+  </si>
+  <si>
+    <t>34242342342</t>
+  </si>
+  <si>
+    <t>dsa</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet consectetur adipisicing elit</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -75,6 +150,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -399,218 +482,271 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="51.75" customWidth="1"/>
+    <col min="4" max="4" width="9.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Nama</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Deskripsi Pendek</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Deskripsi Panjang</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Harga</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Gambar</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Nasgor</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Test1</v>
-      </c>
-      <c r="C2" t="str">
-        <v>odsjaidoasidjiwajodaskldlasdklsjal</v>
-      </c>
-      <c r="D2" t="str">
-        <v>890432804</v>
-      </c>
-      <c r="E2" t="str">
-        <v>nasig</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Noodle</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Hldhjsladkjsa</v>
-      </c>
-      <c r="C3" t="str">
-        <v>jdlsajdpijpsajdpjapjskapsakdpsakdpas</v>
-      </c>
-      <c r="D3" t="str">
-        <v>3231321</v>
-      </c>
-      <c r="E3" t="str">
-        <v>mieg</v>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>15000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>15000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>15000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>15000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
+    <ignoredError sqref="A1:E1 A3 A2 E2 E3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Nama</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Deskripsi Pendek</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Deskripsi Panjang</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Harga</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Gambar</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Air Putih</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Test1</v>
-      </c>
-      <c r="C2" t="str">
-        <v>dsadasdasdgada</v>
-      </c>
-      <c r="D2" t="str">
-        <v>890432804</v>
-      </c>
-      <c r="E2" t="str">
-        <v>airPutih</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Air Teh</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Hldhjsladkjsa</v>
-      </c>
-      <c r="C3" t="str">
-        <v>dsagasdewdas</v>
-      </c>
-      <c r="D3" t="str">
-        <v>3231321</v>
-      </c>
-      <c r="E3" t="str">
-        <v>air-teh</v>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
+    <ignoredError sqref="A1:E3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Nama</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Deskripsi Pendek</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Deskripsi Panjang</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Harga</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Gambar</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>dsadasdsa</v>
-      </c>
-      <c r="B2" t="str">
-        <v>dsadsa</v>
-      </c>
-      <c r="C2" t="str">
-        <v>dsadsadas</v>
-      </c>
-      <c r="D2" t="str">
-        <v>34242342342</v>
-      </c>
-      <c r="E2" t="str">
-        <v>dsa</v>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+    <ignoredError sqref="A1:E2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Nama</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Deskripsi Pendek</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Deskripsi Panjang</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Harga</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Gambar</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>123</v>
-      </c>
-      <c r="D2" t="str">
-        <v>10000</v>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+    <ignoredError sqref="A1:E2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/workspaces/msk/src/configs/menu/list.xlsx
+++ b/workspaces/msk/src/configs/menu/list.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Practice\Latihan Proyek\Proyek\menu-simple-kit\workspaces\msk\src\configs\menu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49897879-6C42-4F22-9219-F2832C8F1AAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616A7AB3-F1D8-4DA2-95AD-9E63D25B8C35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Food" sheetId="1" r:id="rId1"/>
-    <sheet name="Drink" sheetId="2" r:id="rId2"/>
-    <sheet name="Snack" sheetId="3" r:id="rId3"/>
-    <sheet name="Promo" sheetId="4" r:id="rId4"/>
+    <sheet name="Promo" sheetId="4" r:id="rId1"/>
+    <sheet name="Food" sheetId="1" r:id="rId2"/>
+    <sheet name="Drink" sheetId="2" r:id="rId3"/>
+    <sheet name="Snack" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -482,6 +482,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:E2" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -489,14 +530,14 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.125" customWidth="1"/>
     <col min="3" max="3" width="51.75" customWidth="1"/>
     <col min="4" max="4" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -530,7 +571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -589,19 +630,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -635,7 +676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -660,15 +701,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -685,7 +726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -700,47 +741,6 @@
       </c>
       <c r="E2" t="s">
         <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:E2" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
